--- a/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
-        <v>2100</v>
-      </c>
       <c r="G8" s="3">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E10" s="3">
-        <v>-800</v>
+        <v>-2300</v>
       </c>
       <c r="F10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1700</v>
       </c>
       <c r="I10" s="3">
         <v>1600</v>
       </c>
       <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>33000</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>-10500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15500</v>
+        <v>44700</v>
       </c>
       <c r="E17" s="3">
-        <v>21400</v>
+        <v>51300</v>
       </c>
       <c r="F17" s="3">
-        <v>16000</v>
+        <v>20900</v>
       </c>
       <c r="G17" s="3">
-        <v>37700</v>
+        <v>15600</v>
       </c>
       <c r="H17" s="3">
-        <v>18600</v>
+        <v>36800</v>
       </c>
       <c r="I17" s="3">
-        <v>14700</v>
+        <v>18200</v>
       </c>
       <c r="J17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K17" s="3">
         <v>16300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14100</v>
+        <v>-43500</v>
       </c>
       <c r="E18" s="3">
-        <v>-19800</v>
+        <v>-47000</v>
       </c>
       <c r="F18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-14000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-33800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-10300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1200</v>
       </c>
       <c r="P20" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,8 +1331,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1304,102 +1343,111 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13700</v>
+        <v>-44000</v>
       </c>
       <c r="E23" s="3">
-        <v>-20300</v>
+        <v>-46500</v>
       </c>
       <c r="F23" s="3">
-        <v>-13400</v>
+        <v>-19800</v>
       </c>
       <c r="G23" s="3">
-        <v>-34200</v>
+        <v>-13100</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>-33400</v>
       </c>
       <c r="I23" s="3">
-        <v>-10100</v>
+        <v>-14000</v>
       </c>
       <c r="J23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13700</v>
+        <v>-43000</v>
       </c>
       <c r="E26" s="3">
-        <v>-20200</v>
+        <v>-46500</v>
       </c>
       <c r="F26" s="3">
-        <v>-13400</v>
+        <v>-19700</v>
       </c>
       <c r="G26" s="3">
-        <v>-34600</v>
+        <v>-13100</v>
       </c>
       <c r="H26" s="3">
-        <v>-14300</v>
+        <v>-33800</v>
       </c>
       <c r="I26" s="3">
-        <v>-7200</v>
+        <v>-13900</v>
       </c>
       <c r="J26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13700</v>
+        <v>-43100</v>
       </c>
       <c r="E27" s="3">
-        <v>-19800</v>
+        <v>-46000</v>
       </c>
       <c r="F27" s="3">
-        <v>-13400</v>
+        <v>-19300</v>
       </c>
       <c r="G27" s="3">
-        <v>-34200</v>
+        <v>-13000</v>
       </c>
       <c r="H27" s="3">
-        <v>-13800</v>
+        <v>-33400</v>
       </c>
       <c r="I27" s="3">
-        <v>-7000</v>
+        <v>-13500</v>
       </c>
       <c r="J27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1631,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1598,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1200</v>
       </c>
       <c r="P32" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13700</v>
+        <v>-43100</v>
       </c>
       <c r="E33" s="3">
-        <v>-19800</v>
+        <v>-46000</v>
       </c>
       <c r="F33" s="3">
-        <v>-13400</v>
+        <v>-19300</v>
       </c>
       <c r="G33" s="3">
-        <v>-34200</v>
+        <v>-13000</v>
       </c>
       <c r="H33" s="3">
-        <v>-13800</v>
+        <v>-33400</v>
       </c>
       <c r="I33" s="3">
-        <v>-7000</v>
+        <v>-13500</v>
       </c>
       <c r="J33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13700</v>
+        <v>-43100</v>
       </c>
       <c r="E35" s="3">
-        <v>-19800</v>
+        <v>-46000</v>
       </c>
       <c r="F35" s="3">
-        <v>-13400</v>
+        <v>-19300</v>
       </c>
       <c r="G35" s="3">
-        <v>-34200</v>
+        <v>-13000</v>
       </c>
       <c r="H35" s="3">
-        <v>-13800</v>
+        <v>-33400</v>
       </c>
       <c r="I35" s="3">
-        <v>-7000</v>
+        <v>-13500</v>
       </c>
       <c r="J35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2052,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34800</v>
+        <v>50600</v>
       </c>
       <c r="E41" s="3">
-        <v>44800</v>
+        <v>34000</v>
       </c>
       <c r="F41" s="3">
-        <v>55500</v>
+        <v>43700</v>
       </c>
       <c r="G41" s="3">
-        <v>62400</v>
+        <v>54100</v>
       </c>
       <c r="H41" s="3">
-        <v>71200</v>
+        <v>60900</v>
       </c>
       <c r="I41" s="3">
-        <v>70500</v>
+        <v>69500</v>
       </c>
       <c r="J41" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K41" s="3">
         <v>70600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>90300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>205600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23700</v>
+        <v>3300</v>
       </c>
       <c r="E42" s="3">
-        <v>19700</v>
+        <v>23200</v>
       </c>
       <c r="F42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K42" s="3">
         <v>14300</v>
       </c>
-      <c r="G42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>17100</v>
       </c>
       <c r="M42" s="3">
         <v>17100</v>
       </c>
       <c r="N42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="O42" s="3">
         <v>14500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>131600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,22 +2156,22 @@
         <v>1500</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2093,14 +2185,17 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2238,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8300</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="F45" s="3">
-        <v>10200</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>7600</v>
+        <v>9300</v>
       </c>
       <c r="I45" s="3">
-        <v>10900</v>
+        <v>7400</v>
       </c>
       <c r="J45" s="3">
-        <v>13000</v>
+        <v>10600</v>
       </c>
       <c r="K45" s="3">
         <v>13000</v>
       </c>
       <c r="L45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68300</v>
+        <v>61400</v>
       </c>
       <c r="E46" s="3">
-        <v>74400</v>
+        <v>66600</v>
       </c>
       <c r="F46" s="3">
-        <v>80000</v>
+        <v>72600</v>
       </c>
       <c r="G46" s="3">
-        <v>86300</v>
+        <v>78000</v>
       </c>
       <c r="H46" s="3">
-        <v>93200</v>
+        <v>84200</v>
       </c>
       <c r="I46" s="3">
-        <v>95700</v>
+        <v>90900</v>
       </c>
       <c r="J46" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K46" s="3">
         <v>98000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>118100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>230700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>248300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27300</v>
+        <v>22900</v>
       </c>
       <c r="E47" s="3">
-        <v>26700</v>
+        <v>26600</v>
       </c>
       <c r="F47" s="3">
-        <v>27300</v>
+        <v>26100</v>
       </c>
       <c r="G47" s="3">
-        <v>28600</v>
+        <v>26600</v>
       </c>
       <c r="H47" s="3">
-        <v>51900</v>
+        <v>27900</v>
       </c>
       <c r="I47" s="3">
-        <v>51900</v>
+        <v>50600</v>
       </c>
       <c r="J47" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K47" s="3">
         <v>49100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10300</v>
+        <v>14100</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>10100</v>
       </c>
       <c r="F48" s="3">
-        <v>12300</v>
+        <v>11000</v>
       </c>
       <c r="G48" s="3">
-        <v>13900</v>
+        <v>12000</v>
       </c>
       <c r="H48" s="3">
-        <v>15000</v>
+        <v>13600</v>
       </c>
       <c r="I48" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="J48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K48" s="3">
         <v>15500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33500</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>39100</v>
+        <v>32700</v>
       </c>
       <c r="F49" s="3">
-        <v>48500</v>
+        <v>38100</v>
       </c>
       <c r="G49" s="3">
-        <v>49500</v>
+        <v>47300</v>
       </c>
       <c r="H49" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="I49" s="3">
-        <v>51400</v>
+        <v>49300</v>
       </c>
       <c r="J49" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K49" s="3">
         <v>52500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,43 +2567,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>7300</v>
+        <v>6400</v>
       </c>
       <c r="F52" s="3">
-        <v>7900</v>
+        <v>7100</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>7700</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146000</v>
+        <v>100000</v>
       </c>
       <c r="E54" s="3">
-        <v>158800</v>
+        <v>142400</v>
       </c>
       <c r="F54" s="3">
-        <v>176000</v>
+        <v>154900</v>
       </c>
       <c r="G54" s="3">
-        <v>178900</v>
+        <v>171700</v>
       </c>
       <c r="H54" s="3">
-        <v>211000</v>
+        <v>174500</v>
       </c>
       <c r="I54" s="3">
-        <v>215300</v>
+        <v>205800</v>
       </c>
       <c r="J54" s="3">
+        <v>210000</v>
+      </c>
+      <c r="K54" s="3">
         <v>215400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>260400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>273600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>278600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>284100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>302000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,122 +2840,131 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9900</v>
+        <v>10800</v>
       </c>
       <c r="E59" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="F59" s="3">
-        <v>13700</v>
+        <v>11300</v>
       </c>
       <c r="G59" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="H59" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="I59" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K59" s="3">
         <v>13800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9900</v>
+        <v>10800</v>
       </c>
       <c r="E60" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="F60" s="3">
-        <v>13700</v>
+        <v>11300</v>
       </c>
       <c r="G60" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="H60" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="I60" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
-        <v>700</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>4100</v>
       </c>
       <c r="L61" s="3">
         <v>4100</v>
@@ -2831,60 +2973,66 @@
         <v>4100</v>
       </c>
       <c r="N61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O61" s="3">
         <v>6600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>6500</v>
       </c>
       <c r="P61" s="3">
         <v>6500</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6900</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="F62" s="3">
-        <v>8100</v>
+        <v>7400</v>
       </c>
       <c r="G62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
       </c>
       <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19300</v>
+        <v>17800</v>
       </c>
       <c r="E66" s="3">
-        <v>21800</v>
+        <v>18900</v>
       </c>
       <c r="F66" s="3">
-        <v>25000</v>
+        <v>21300</v>
       </c>
       <c r="G66" s="3">
-        <v>18600</v>
+        <v>24400</v>
       </c>
       <c r="H66" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="I66" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,34 +3329,37 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K70" s="3">
         <v>-20600</v>
-      </c>
-      <c r="E70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="F70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="G70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="H70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="K70" s="3">
-        <v>-21300</v>
       </c>
       <c r="L70" s="3">
         <v>-21300</v>
@@ -3201,16 +3368,19 @@
         <v>-21300</v>
       </c>
       <c r="N70" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="O70" s="3">
         <v>-20000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-17900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-235000</v>
+        <v>-272300</v>
       </c>
       <c r="E72" s="3">
-        <v>-221000</v>
+        <v>-229200</v>
       </c>
       <c r="F72" s="3">
-        <v>-201300</v>
+        <v>-215600</v>
       </c>
       <c r="G72" s="3">
-        <v>-187900</v>
+        <v>-196300</v>
       </c>
       <c r="H72" s="3">
-        <v>-153600</v>
+        <v>-183300</v>
       </c>
       <c r="I72" s="3">
-        <v>-139000</v>
+        <v>-149900</v>
       </c>
       <c r="J72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-131500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-127300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-97000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-87400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>147300</v>
+        <v>102400</v>
       </c>
       <c r="E76" s="3">
-        <v>157600</v>
+        <v>143700</v>
       </c>
       <c r="F76" s="3">
-        <v>171700</v>
+        <v>153700</v>
       </c>
       <c r="G76" s="3">
-        <v>180800</v>
+        <v>167500</v>
       </c>
       <c r="H76" s="3">
-        <v>215600</v>
+        <v>176400</v>
       </c>
       <c r="I76" s="3">
-        <v>219500</v>
+        <v>210300</v>
       </c>
       <c r="J76" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K76" s="3">
         <v>215800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>248200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>259100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>261000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>266500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>255600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13700</v>
+        <v>-43100</v>
       </c>
       <c r="E81" s="3">
-        <v>-19800</v>
+        <v>-46000</v>
       </c>
       <c r="F81" s="3">
-        <v>-13400</v>
+        <v>-19300</v>
       </c>
       <c r="G81" s="3">
-        <v>-34200</v>
+        <v>-13000</v>
       </c>
       <c r="H81" s="3">
-        <v>-13800</v>
+        <v>-33400</v>
       </c>
       <c r="I81" s="3">
-        <v>-7000</v>
+        <v>-13500</v>
       </c>
       <c r="J81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>6600</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="3">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="G9" s="3">
         <v>2400</v>
       </c>
       <c r="H9" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="I9" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="J9" s="3">
         <v>2700</v>
       </c>
       <c r="K9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2300</v>
       </c>
-      <c r="F10" s="3">
-        <v>-700</v>
-      </c>
       <c r="G10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
-        <v>900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>12300</v>
+        <v>34300</v>
       </c>
       <c r="F14" s="3">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3">
-        <v>20900</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44700</v>
+        <v>5800</v>
       </c>
       <c r="E17" s="3">
-        <v>51300</v>
+        <v>46400</v>
       </c>
       <c r="F17" s="3">
-        <v>20900</v>
+        <v>53300</v>
       </c>
       <c r="G17" s="3">
-        <v>15600</v>
+        <v>21700</v>
       </c>
       <c r="H17" s="3">
-        <v>36800</v>
+        <v>16100</v>
       </c>
       <c r="I17" s="3">
-        <v>18200</v>
+        <v>38200</v>
       </c>
       <c r="J17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43500</v>
+        <v>-5300</v>
       </c>
       <c r="E18" s="3">
-        <v>-47000</v>
+        <v>-45200</v>
       </c>
       <c r="F18" s="3">
-        <v>-19400</v>
+        <v>-48800</v>
       </c>
       <c r="G18" s="3">
-        <v>-13600</v>
+        <v>-20100</v>
       </c>
       <c r="H18" s="3">
-        <v>-33000</v>
+        <v>-14400</v>
       </c>
       <c r="I18" s="3">
-        <v>-14000</v>
+        <v>-34200</v>
       </c>
       <c r="J18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1254,49 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1200</v>
       </c>
       <c r="Q20" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,8 +1374,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1346,108 +1386,117 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-44000</v>
+        <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-46500</v>
+        <v>-45700</v>
       </c>
       <c r="F23" s="3">
-        <v>-19800</v>
+        <v>-48300</v>
       </c>
       <c r="G23" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H23" s="3">
-        <v>-33400</v>
+        <v>-13800</v>
       </c>
       <c r="I23" s="3">
-        <v>-14000</v>
+        <v>-34600</v>
       </c>
       <c r="J23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43000</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
-        <v>-46500</v>
+        <v>-44700</v>
       </c>
       <c r="F26" s="3">
-        <v>-19700</v>
+        <v>-48200</v>
       </c>
       <c r="G26" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H26" s="3">
-        <v>-33800</v>
+        <v>-13800</v>
       </c>
       <c r="I26" s="3">
-        <v>-13900</v>
+        <v>-35000</v>
       </c>
       <c r="J26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43100</v>
+        <v>-5300</v>
       </c>
       <c r="E27" s="3">
-        <v>-46000</v>
+        <v>-44700</v>
       </c>
       <c r="F27" s="3">
-        <v>-19300</v>
+        <v>-47700</v>
       </c>
       <c r="G27" s="3">
-        <v>-13000</v>
+        <v>-20000</v>
       </c>
       <c r="H27" s="3">
-        <v>-33400</v>
+        <v>-13800</v>
       </c>
       <c r="I27" s="3">
-        <v>-13500</v>
+        <v>-34700</v>
       </c>
       <c r="J27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,13 +1692,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1661,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43100</v>
+        <v>-5300</v>
       </c>
       <c r="E33" s="3">
-        <v>-46000</v>
+        <v>-44700</v>
       </c>
       <c r="F33" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-19300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43100</v>
+        <v>-5300</v>
       </c>
       <c r="E35" s="3">
-        <v>-46000</v>
+        <v>-44700</v>
       </c>
       <c r="F35" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-19300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50600</v>
+        <v>48400</v>
       </c>
       <c r="E41" s="3">
-        <v>34000</v>
+        <v>52500</v>
       </c>
       <c r="F41" s="3">
-        <v>43700</v>
+        <v>35200</v>
       </c>
       <c r="G41" s="3">
-        <v>54100</v>
+        <v>45400</v>
       </c>
       <c r="H41" s="3">
-        <v>60900</v>
+        <v>56100</v>
       </c>
       <c r="I41" s="3">
-        <v>69500</v>
+        <v>63200</v>
       </c>
       <c r="J41" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K41" s="3">
         <v>68700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>90300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>205600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="E42" s="3">
-        <v>23200</v>
+        <v>3500</v>
       </c>
       <c r="F42" s="3">
-        <v>19200</v>
+        <v>24000</v>
       </c>
       <c r="G42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="H42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17800</v>
-      </c>
-      <c r="M42" s="3">
-        <v>17100</v>
       </c>
       <c r="N42" s="3">
         <v>17100</v>
       </c>
       <c r="O42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="P42" s="3">
         <v>14500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>131600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,25 +2249,25 @@
         <v>1500</v>
       </c>
       <c r="E43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+        <v>1500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -2188,14 +2281,17 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,196 +2337,211 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="E45" s="3">
-        <v>8100</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
-        <v>9300</v>
+        <v>10300</v>
       </c>
       <c r="I45" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="J45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K45" s="3">
         <v>10600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>13000</v>
       </c>
       <c r="L45" s="3">
         <v>13000</v>
       </c>
       <c r="M45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61400</v>
+        <v>59800</v>
       </c>
       <c r="E46" s="3">
-        <v>66600</v>
+        <v>63700</v>
       </c>
       <c r="F46" s="3">
-        <v>72600</v>
+        <v>69200</v>
       </c>
       <c r="G46" s="3">
-        <v>78000</v>
+        <v>75300</v>
       </c>
       <c r="H46" s="3">
-        <v>84200</v>
+        <v>81000</v>
       </c>
       <c r="I46" s="3">
-        <v>90900</v>
+        <v>87400</v>
       </c>
       <c r="J46" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K46" s="3">
         <v>93400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>118100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>179000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>230700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>248300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="E47" s="3">
-        <v>26600</v>
+        <v>23800</v>
       </c>
       <c r="F47" s="3">
-        <v>26100</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="H47" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="I47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K47" s="3">
         <v>50600</v>
       </c>
-      <c r="J47" s="3">
-        <v>50600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>52400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>57400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14600</v>
-      </c>
       <c r="J48" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,46 +2549,49 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>32700</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>38100</v>
+        <v>33900</v>
       </c>
       <c r="G49" s="3">
-        <v>47300</v>
+        <v>39600</v>
       </c>
       <c r="H49" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="I49" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="J49" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K49" s="3">
         <v>50200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,46 +2687,49 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>6400</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G52" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="H52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>900</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
-        <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100000</v>
+        <v>95100</v>
       </c>
       <c r="E54" s="3">
-        <v>142400</v>
+        <v>103800</v>
       </c>
       <c r="F54" s="3">
-        <v>154900</v>
+        <v>147800</v>
       </c>
       <c r="G54" s="3">
-        <v>171700</v>
+        <v>160800</v>
       </c>
       <c r="H54" s="3">
-        <v>174500</v>
+        <v>178200</v>
       </c>
       <c r="I54" s="3">
-        <v>205800</v>
+        <v>181000</v>
       </c>
       <c r="J54" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K54" s="3">
         <v>210000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>215400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>260400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>273600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>284100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>302000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,107 +2977,116 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E59" s="3">
-        <v>9600</v>
+        <v>11200</v>
       </c>
       <c r="F59" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="3">
-        <v>13400</v>
+        <v>11800</v>
       </c>
       <c r="H59" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="I59" s="3">
-        <v>13200</v>
+        <v>14500</v>
       </c>
       <c r="J59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K59" s="3">
         <v>13000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E60" s="3">
-        <v>9600</v>
+        <v>11200</v>
       </c>
       <c r="F60" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G60" s="3">
-        <v>13400</v>
+        <v>11800</v>
       </c>
       <c r="H60" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="I60" s="3">
-        <v>13200</v>
+        <v>14500</v>
       </c>
       <c r="J60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
@@ -2964,10 +3107,10 @@
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>3700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>4100</v>
       </c>
       <c r="M61" s="3">
         <v>4100</v>
@@ -2976,63 +3119,69 @@
         <v>4100</v>
       </c>
       <c r="O61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P61" s="3">
         <v>6600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>6500</v>
       </c>
       <c r="Q61" s="3">
         <v>6500</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>6700</v>
+        <v>4600</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="G62" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17800</v>
+        <v>14500</v>
       </c>
       <c r="E66" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>25300</v>
+      </c>
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
-        <v>21300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>18200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>15600</v>
-      </c>
       <c r="J66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,37 +3497,40 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K70" s="3">
         <v>-20100</v>
       </c>
-      <c r="E70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-20600</v>
-      </c>
-      <c r="L70" s="3">
-        <v>-21300</v>
       </c>
       <c r="M70" s="3">
         <v>-21300</v>
@@ -3371,16 +3539,19 @@
         <v>-21300</v>
       </c>
       <c r="O70" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="P70" s="3">
         <v>-20000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-272300</v>
+        <v>-290100</v>
       </c>
       <c r="E72" s="3">
-        <v>-229200</v>
+        <v>-282600</v>
       </c>
       <c r="F72" s="3">
-        <v>-215600</v>
+        <v>-237900</v>
       </c>
       <c r="G72" s="3">
-        <v>-196300</v>
+        <v>-223700</v>
       </c>
       <c r="H72" s="3">
-        <v>-183300</v>
+        <v>-203700</v>
       </c>
       <c r="I72" s="3">
-        <v>-149900</v>
+        <v>-190200</v>
       </c>
       <c r="J72" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-135600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-131500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-97000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-87400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>102400</v>
+        <v>101400</v>
       </c>
       <c r="E76" s="3">
-        <v>143700</v>
+        <v>106200</v>
       </c>
       <c r="F76" s="3">
-        <v>153700</v>
+        <v>149100</v>
       </c>
       <c r="G76" s="3">
-        <v>167500</v>
+        <v>159500</v>
       </c>
       <c r="H76" s="3">
-        <v>176400</v>
+        <v>173800</v>
       </c>
       <c r="I76" s="3">
-        <v>210300</v>
+        <v>183000</v>
       </c>
       <c r="J76" s="3">
+        <v>218200</v>
+      </c>
+      <c r="K76" s="3">
         <v>214100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>215800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>248200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>259100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>261000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>266500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>255600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43100</v>
+        <v>-5300</v>
       </c>
       <c r="E81" s="3">
-        <v>-46000</v>
+        <v>-44700</v>
       </c>
       <c r="F81" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-19300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>WBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>1200</v>
-      </c>
       <c r="F8" s="3">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="H8" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5300</v>
       </c>
       <c r="N8" s="3">
         <v>5500</v>
       </c>
       <c r="O8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,99 +811,111 @@
         <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
-        <v>6900</v>
+        <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3100</v>
       </c>
       <c r="M9" s="3">
         <v>2700</v>
       </c>
       <c r="N9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-500</v>
       </c>
-      <c r="F10" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-800</v>
       </c>
-      <c r="H10" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,49 +1057,55 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>34300</v>
+        <v>5100</v>
       </c>
       <c r="F14" s="3">
-        <v>12800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
+        <v>35900</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="I14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>21700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-10500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="E17" s="3">
-        <v>46400</v>
+        <v>13600</v>
       </c>
       <c r="F17" s="3">
-        <v>53300</v>
+        <v>6100</v>
       </c>
       <c r="G17" s="3">
-        <v>21700</v>
+        <v>48600</v>
       </c>
       <c r="H17" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K17" s="3">
         <v>38200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>25800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>39100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5300</v>
+        <v>-7600</v>
       </c>
       <c r="E18" s="3">
-        <v>-45200</v>
+        <v>-13100</v>
       </c>
       <c r="F18" s="3">
-        <v>-48800</v>
+        <v>-5600</v>
       </c>
       <c r="G18" s="3">
-        <v>-20100</v>
+        <v>-47300</v>
       </c>
       <c r="H18" s="3">
-        <v>-14400</v>
+        <v>-15000</v>
       </c>
       <c r="I18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-34200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-20500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-33600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,11 +1457,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1389,114 +1469,132 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-6600</v>
       </c>
       <c r="E23" s="3">
-        <v>-45700</v>
+        <v>-13000</v>
       </c>
       <c r="F23" s="3">
-        <v>-48300</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>-20500</v>
+        <v>-47800</v>
       </c>
       <c r="H23" s="3">
-        <v>-13800</v>
+        <v>-14600</v>
       </c>
       <c r="I23" s="3">
-        <v>-34600</v>
+        <v>-21500</v>
       </c>
       <c r="J23" s="3">
         <v>-14500</v>
       </c>
       <c r="K23" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5300</v>
+        <v>-6600</v>
       </c>
       <c r="E26" s="3">
-        <v>-44700</v>
+        <v>-12900</v>
       </c>
       <c r="F26" s="3">
-        <v>-48200</v>
+        <v>-5500</v>
       </c>
       <c r="G26" s="3">
-        <v>-20500</v>
+        <v>-46800</v>
       </c>
       <c r="H26" s="3">
-        <v>-13800</v>
+        <v>-14500</v>
       </c>
       <c r="I26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-35000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-19500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-29700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5300</v>
+        <v>-6700</v>
       </c>
       <c r="E27" s="3">
-        <v>-44700</v>
+        <v>-13100</v>
       </c>
       <c r="F27" s="3">
-        <v>-47700</v>
+        <v>-5600</v>
       </c>
       <c r="G27" s="3">
-        <v>-20000</v>
+        <v>-46800</v>
       </c>
       <c r="H27" s="3">
-        <v>-13800</v>
+        <v>-14600</v>
       </c>
       <c r="I27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1811,25 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1725,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>2700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5300</v>
+        <v>-6700</v>
       </c>
       <c r="E33" s="3">
-        <v>-44700</v>
+        <v>-13100</v>
       </c>
       <c r="F33" s="3">
-        <v>-47700</v>
+        <v>-5600</v>
       </c>
       <c r="G33" s="3">
-        <v>-20000</v>
+        <v>-46800</v>
       </c>
       <c r="H33" s="3">
-        <v>-13800</v>
+        <v>-14600</v>
       </c>
       <c r="I33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-19300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-27800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5300</v>
+        <v>-6700</v>
       </c>
       <c r="E35" s="3">
-        <v>-44700</v>
+        <v>-13100</v>
       </c>
       <c r="F35" s="3">
-        <v>-47700</v>
+        <v>-5600</v>
       </c>
       <c r="G35" s="3">
-        <v>-20000</v>
+        <v>-46800</v>
       </c>
       <c r="H35" s="3">
-        <v>-13800</v>
+        <v>-14600</v>
       </c>
       <c r="I35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-19300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-27800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,140 +2312,154 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48400</v>
+        <v>42300</v>
       </c>
       <c r="E41" s="3">
-        <v>52500</v>
+        <v>45000</v>
       </c>
       <c r="F41" s="3">
-        <v>35200</v>
+        <v>50600</v>
       </c>
       <c r="G41" s="3">
-        <v>45400</v>
+        <v>54900</v>
       </c>
       <c r="H41" s="3">
-        <v>56100</v>
+        <v>36900</v>
       </c>
       <c r="I41" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K41" s="3">
         <v>63200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>72100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>68700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>70600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>78500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>90300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>89900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>205600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>97900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>65400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4400</v>
+        <v>7600</v>
       </c>
       <c r="E42" s="3">
-        <v>3500</v>
+        <v>7600</v>
       </c>
       <c r="F42" s="3">
-        <v>24000</v>
+        <v>4600</v>
       </c>
       <c r="G42" s="3">
-        <v>20000</v>
+        <v>3600</v>
       </c>
       <c r="H42" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K42" s="3">
         <v>14500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>14500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="O42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="P42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
-      <c r="K42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="M42" s="3">
-        <v>17800</v>
-      </c>
-      <c r="N42" s="3">
-        <v>17100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>17100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>14500</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>131600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
@@ -2284,14 +2470,20 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2532,294 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="E45" s="3">
-        <v>6200</v>
+        <v>4500</v>
       </c>
       <c r="F45" s="3">
-        <v>8400</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>8800</v>
       </c>
       <c r="I45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>71900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>59800</v>
+        <v>54000</v>
       </c>
       <c r="E46" s="3">
-        <v>63700</v>
+        <v>57200</v>
       </c>
       <c r="F46" s="3">
-        <v>69200</v>
+        <v>62600</v>
       </c>
       <c r="G46" s="3">
-        <v>75300</v>
+        <v>65500</v>
       </c>
       <c r="H46" s="3">
-        <v>81000</v>
+        <v>72400</v>
       </c>
       <c r="I46" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K46" s="3">
         <v>87400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>94300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>93400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>98000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>109400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>118100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>179000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>230700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>248300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="E47" s="3">
-        <v>23800</v>
+        <v>17500</v>
       </c>
       <c r="F47" s="3">
-        <v>27600</v>
+        <v>23000</v>
       </c>
       <c r="G47" s="3">
-        <v>27100</v>
+        <v>24100</v>
       </c>
       <c r="H47" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="I47" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J47" s="3">
         <v>29000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="L47" s="3">
         <v>52500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>50600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>49100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>52400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>57400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>58200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>13300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12500</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
-        <v>14600</v>
+        <v>11200</v>
       </c>
       <c r="F48" s="3">
-        <v>10400</v>
+        <v>13100</v>
       </c>
       <c r="G48" s="3">
-        <v>11400</v>
+        <v>15300</v>
       </c>
       <c r="H48" s="3">
-        <v>12500</v>
+        <v>10900</v>
       </c>
       <c r="I48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>15500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>9300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
-        <v>33900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>39600</v>
-      </c>
       <c r="H49" s="3">
-        <v>49100</v>
+        <v>35500</v>
       </c>
       <c r="I49" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K49" s="3">
         <v>50100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>51100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>50200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>52500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>81800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>83600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>28200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>27800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>32300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2939,55 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7400</v>
-      </c>
       <c r="H52" s="3">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="I52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
+        <v>900</v>
+      </c>
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95100</v>
+        <v>76100</v>
       </c>
       <c r="E54" s="3">
-        <v>103800</v>
+        <v>86600</v>
       </c>
       <c r="F54" s="3">
-        <v>147800</v>
+        <v>99600</v>
       </c>
       <c r="G54" s="3">
-        <v>160800</v>
+        <v>105800</v>
       </c>
       <c r="H54" s="3">
-        <v>178200</v>
+        <v>154800</v>
       </c>
       <c r="I54" s="3">
+        <v>168400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>186600</v>
+      </c>
+      <c r="K54" s="3">
         <v>181000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>213500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>210000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>215400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>260400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>273600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>278600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>284100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>302000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>263600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10500</v>
+        <v>9400</v>
       </c>
       <c r="E59" s="3">
         <v>11200</v>
       </c>
       <c r="F59" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G59" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H59" s="3">
-        <v>13900</v>
+        <v>10400</v>
       </c>
       <c r="I59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>26100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>20800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>19400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>19700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>30500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10500</v>
+        <v>9400</v>
       </c>
       <c r="E60" s="3">
         <v>11200</v>
       </c>
       <c r="F60" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G60" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H60" s="3">
-        <v>13900</v>
+        <v>10400</v>
       </c>
       <c r="I60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>26100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>20800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>30500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,99 +3375,111 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>4100</v>
       </c>
       <c r="O61" s="3">
         <v>4100</v>
       </c>
       <c r="P61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R61" s="3">
         <v>6600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>4600</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="G62" s="3">
-        <v>7700</v>
+        <v>4800</v>
       </c>
       <c r="H62" s="3">
-        <v>8200</v>
+        <v>7300</v>
       </c>
       <c r="I62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2200</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14500</v>
+        <v>7900</v>
       </c>
       <c r="E66" s="3">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="F66" s="3">
-        <v>19600</v>
+        <v>15200</v>
       </c>
       <c r="G66" s="3">
-        <v>22100</v>
+        <v>16900</v>
       </c>
       <c r="H66" s="3">
-        <v>25300</v>
+        <v>20500</v>
       </c>
       <c r="I66" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>51200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>46700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>40900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>43100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>53400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,58 +3830,70 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K70" s="3">
         <v>-20900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>-20900</v>
       </c>
-      <c r="F70" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>-20100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>-20600</v>
-      </c>
-      <c r="M70" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="N70" s="3">
-        <v>-21300</v>
       </c>
       <c r="O70" s="3">
         <v>-21300</v>
       </c>
       <c r="P70" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="R70" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>-17900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-290100</v>
+        <v>-323700</v>
       </c>
       <c r="E72" s="3">
-        <v>-282600</v>
+        <v>-317000</v>
       </c>
       <c r="F72" s="3">
-        <v>-237900</v>
+        <v>-303900</v>
       </c>
       <c r="G72" s="3">
-        <v>-223700</v>
+        <v>-298300</v>
       </c>
       <c r="H72" s="3">
-        <v>-203700</v>
+        <v>-249200</v>
       </c>
       <c r="I72" s="3">
+        <v>-234300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-213400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-190200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-155500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-135600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-131500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-127300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-107700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-97000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-87400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-78300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101400</v>
+        <v>90100</v>
       </c>
       <c r="E76" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F76" s="3">
         <v>106200</v>
       </c>
-      <c r="F76" s="3">
-        <v>149100</v>
-      </c>
       <c r="G76" s="3">
-        <v>159500</v>
+        <v>110800</v>
       </c>
       <c r="H76" s="3">
-        <v>173800</v>
+        <v>156200</v>
       </c>
       <c r="I76" s="3">
+        <v>167100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K76" s="3">
         <v>183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>218200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>214100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>215800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>230600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>248200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>259100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>261000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>266500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>255600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5300</v>
+        <v>-6700</v>
       </c>
       <c r="E81" s="3">
-        <v>-44700</v>
+        <v>-13100</v>
       </c>
       <c r="F81" s="3">
-        <v>-47700</v>
+        <v>-5600</v>
       </c>
       <c r="G81" s="3">
-        <v>-20000</v>
+        <v>-46800</v>
       </c>
       <c r="H81" s="3">
-        <v>-13800</v>
+        <v>-14600</v>
       </c>
       <c r="I81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-19300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-27800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>WBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
-        <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1300</v>
-      </c>
       <c r="H8" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>1500</v>
       </c>
       <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
-        <v>1900</v>
-      </c>
       <c r="H9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2700</v>
       </c>
       <c r="M9" s="3">
         <v>2700</v>
       </c>
       <c r="N9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>-500</v>
-      </c>
       <c r="H10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>35900</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>37600</v>
+      </c>
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>21700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>-10500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="E17" s="3">
-        <v>13600</v>
+        <v>8600</v>
       </c>
       <c r="F17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
-        <v>48600</v>
-      </c>
       <c r="H17" s="3">
+        <v>51300</v>
+      </c>
+      <c r="I17" s="3">
         <v>16500</v>
       </c>
-      <c r="I17" s="3">
-        <v>22500</v>
-      </c>
       <c r="J17" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K17" s="3">
         <v>16800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-13100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-47300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-21000</v>
-      </c>
       <c r="J18" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1200</v>
       </c>
       <c r="T20" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1475,70 +1514,76 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-47800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-21500</v>
-      </c>
       <c r="J23" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1549,52 +1594,55 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F26" s="3">
-        <v>-5500</v>
+        <v>-13000</v>
       </c>
       <c r="G26" s="3">
-        <v>-46800</v>
+        <v>-5600</v>
       </c>
       <c r="H26" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-13100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-46800</v>
-      </c>
       <c r="H27" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-21000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,14 +1891,14 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1853,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1200</v>
       </c>
       <c r="T32" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-13100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-46800</v>
-      </c>
       <c r="H33" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-14600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-21000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-13100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-46800</v>
-      </c>
       <c r="H35" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-14600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-21000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42300</v>
+        <v>47200</v>
       </c>
       <c r="E41" s="3">
-        <v>45000</v>
+        <v>42500</v>
       </c>
       <c r="F41" s="3">
-        <v>50600</v>
+        <v>45100</v>
       </c>
       <c r="G41" s="3">
-        <v>54900</v>
+        <v>50900</v>
       </c>
       <c r="H41" s="3">
-        <v>36900</v>
+        <v>55200</v>
       </c>
       <c r="I41" s="3">
-        <v>47500</v>
+        <v>37100</v>
       </c>
       <c r="J41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K41" s="3">
         <v>58800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>90300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>205600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>97900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G42" s="3">
         <v>4600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3600</v>
       </c>
-      <c r="H42" s="3">
-        <v>25200</v>
-      </c>
       <c r="I42" s="3">
-        <v>20900</v>
+        <v>25300</v>
       </c>
       <c r="J42" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K42" s="3">
         <v>15200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>14500</v>
       </c>
       <c r="L42" s="3">
         <v>14500</v>
       </c>
       <c r="M42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17800</v>
-      </c>
-      <c r="P42" s="3">
-        <v>17100</v>
       </c>
       <c r="Q42" s="3">
         <v>17100</v>
       </c>
       <c r="R42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="S42" s="3">
         <v>14500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>131600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>1600</v>
@@ -2447,22 +2539,22 @@
         <v>1600</v>
       </c>
       <c r="I43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+        <v>1600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
@@ -2476,14 +2568,17 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,176 +2633,188 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>13000</v>
       </c>
       <c r="O45" s="3">
         <v>13000</v>
       </c>
       <c r="P45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54000</v>
+        <v>51300</v>
       </c>
       <c r="E46" s="3">
-        <v>57200</v>
+        <v>54200</v>
       </c>
       <c r="F46" s="3">
-        <v>62600</v>
+        <v>57400</v>
       </c>
       <c r="G46" s="3">
-        <v>65500</v>
+        <v>62900</v>
       </c>
       <c r="H46" s="3">
-        <v>72400</v>
+        <v>65700</v>
       </c>
       <c r="I46" s="3">
-        <v>78900</v>
+        <v>72700</v>
       </c>
       <c r="J46" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K46" s="3">
         <v>84800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>93400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>118100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>179000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>230700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>248300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>246100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17000</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F47" s="3">
         <v>17500</v>
       </c>
-      <c r="F47" s="3">
-        <v>23000</v>
-      </c>
       <c r="G47" s="3">
-        <v>24100</v>
+        <v>23100</v>
       </c>
       <c r="H47" s="3">
-        <v>28900</v>
+        <v>24200</v>
       </c>
       <c r="I47" s="3">
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="J47" s="3">
-        <v>29000</v>
+        <v>28500</v>
       </c>
       <c r="K47" s="3">
         <v>29000</v>
       </c>
       <c r="L47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M47" s="3">
         <v>52500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>52400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>57400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>58200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,55 +2822,58 @@
         <v>4400</v>
       </c>
       <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
-        <v>13100</v>
-      </c>
       <c r="G48" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="H48" s="3">
-        <v>10900</v>
+        <v>15400</v>
       </c>
       <c r="I48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J48" s="3">
         <v>12000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,55 +2881,58 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
-        <v>35500</v>
-      </c>
       <c r="I49" s="3">
-        <v>41400</v>
+        <v>35700</v>
       </c>
       <c r="J49" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K49" s="3">
         <v>51400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2945,40 +3064,40 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
-        <v>7700</v>
-      </c>
       <c r="J52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K52" s="3">
         <v>8400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76100</v>
+        <v>71900</v>
       </c>
       <c r="E54" s="3">
-        <v>86600</v>
+        <v>76500</v>
       </c>
       <c r="F54" s="3">
-        <v>99600</v>
+        <v>86900</v>
       </c>
       <c r="G54" s="3">
-        <v>105800</v>
+        <v>100000</v>
       </c>
       <c r="H54" s="3">
-        <v>154800</v>
+        <v>106300</v>
       </c>
       <c r="I54" s="3">
-        <v>168400</v>
+        <v>155500</v>
       </c>
       <c r="J54" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K54" s="3">
         <v>186600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>213500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>210000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>215400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>260400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>273600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>278600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>302000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>263600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11000</v>
       </c>
-      <c r="G59" s="3">
-        <v>11700</v>
-      </c>
       <c r="H59" s="3">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="I59" s="3">
-        <v>12300</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11000</v>
       </c>
-      <c r="G60" s="3">
-        <v>11700</v>
-      </c>
       <c r="H60" s="3">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="I60" s="3">
-        <v>12300</v>
+        <v>10500</v>
       </c>
       <c r="J60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,13 +3523,13 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -3396,16 +3538,16 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
         <v>3700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>4100</v>
       </c>
       <c r="P61" s="3">
         <v>4100</v>
@@ -3414,72 +3556,78 @@
         <v>4100</v>
       </c>
       <c r="R61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S61" s="3">
         <v>6600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>6500</v>
       </c>
       <c r="T61" s="3">
         <v>6500</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7300</v>
       </c>
-      <c r="I62" s="3">
-        <v>8000</v>
-      </c>
       <c r="J62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2200</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
-        <v>12500</v>
-      </c>
       <c r="F66" s="3">
-        <v>15200</v>
+        <v>12600</v>
       </c>
       <c r="G66" s="3">
-        <v>16900</v>
+        <v>15300</v>
       </c>
       <c r="H66" s="3">
-        <v>20500</v>
+        <v>17000</v>
       </c>
       <c r="I66" s="3">
-        <v>23200</v>
+        <v>20600</v>
       </c>
       <c r="J66" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K66" s="3">
         <v>26500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,46 +4000,49 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>-21900</v>
-      </c>
-      <c r="E70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="K70" s="3">
-        <v>-20900</v>
       </c>
       <c r="L70" s="3">
         <v>-20900</v>
       </c>
       <c r="M70" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="N70" s="3">
         <v>-20100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-20600</v>
-      </c>
-      <c r="O70" s="3">
-        <v>-21300</v>
       </c>
       <c r="P70" s="3">
         <v>-21300</v>
@@ -3884,16 +4051,19 @@
         <v>-21300</v>
       </c>
       <c r="R70" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="S70" s="3">
         <v>-20000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-17900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-323700</v>
+        <v>-333700</v>
       </c>
       <c r="E72" s="3">
-        <v>-317000</v>
+        <v>-325100</v>
       </c>
       <c r="F72" s="3">
-        <v>-303900</v>
+        <v>-318400</v>
       </c>
       <c r="G72" s="3">
-        <v>-298300</v>
+        <v>-305200</v>
       </c>
       <c r="H72" s="3">
-        <v>-249200</v>
+        <v>-299600</v>
       </c>
       <c r="I72" s="3">
-        <v>-234300</v>
+        <v>-250200</v>
       </c>
       <c r="J72" s="3">
+        <v>-235400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-213400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-190200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-155500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-135600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-131500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-127300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-97000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-87400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-78300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90100</v>
+        <v>61700</v>
       </c>
       <c r="E76" s="3">
-        <v>95900</v>
+        <v>68500</v>
       </c>
       <c r="F76" s="3">
-        <v>106200</v>
+        <v>74400</v>
       </c>
       <c r="G76" s="3">
-        <v>110800</v>
+        <v>84700</v>
       </c>
       <c r="H76" s="3">
-        <v>156200</v>
+        <v>89300</v>
       </c>
       <c r="I76" s="3">
-        <v>167100</v>
+        <v>134900</v>
       </c>
       <c r="J76" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K76" s="3">
         <v>182000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>218200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>214100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>215800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>248200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>259100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>261000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>266500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>255600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-13100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-46800</v>
-      </c>
       <c r="H81" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-14600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-21000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
